--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43221,6 +43221,41 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>6500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43256,6 +43256,41 @@
         <v>6500</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43291,6 +43291,43 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1218" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43328,6 +43328,43 @@
         </is>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43365,6 +43365,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43400,6 +43400,41 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>225000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43435,6 +43435,41 @@
         <v>225000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>15500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43470,6 +43470,41 @@
         <v>15500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>43500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43505,6 +43505,41 @@
         <v>43500</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>378500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43540,6 +43540,41 @@
         <v>378500</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>255000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43575,6 +43575,41 @@
         <v>255000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>30000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43610,6 +43610,41 @@
         <v>30000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43645,6 +43645,76 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>359500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43715,6 +43715,76 @@
         <v>359500</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>200100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43785,6 +43785,43 @@
         <v>200100</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1232" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43822,6 +43822,41 @@
         </is>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>245500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43857,6 +43857,41 @@
         <v>245500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>116500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43892,6 +43892,41 @@
         <v>116500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>658000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43927,6 +43927,76 @@
         <v>658000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>86000</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>36000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43997,6 +43997,41 @@
         <v>36000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>176500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44032,6 +44032,41 @@
         <v>176500</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>205700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2615"/>
+  <dimension ref="A1:I2616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92227,6 +92227,41 @@
         <v>205700</v>
       </c>
     </row>
+    <row r="2616">
+      <c r="A2616" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2616" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2616" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2616" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2616" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2616" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2616" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2616" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2616" t="n">
+        <v>46000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2616"/>
+  <dimension ref="A1:I2617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92262,6 +92262,41 @@
         <v>46000</v>
       </c>
     </row>
+    <row r="2617">
+      <c r="A2617" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2617" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2617" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2617" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2617" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2617" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2617" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2617" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2617" t="n">
+        <v>2007400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2617"/>
+  <dimension ref="A1:I2618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92297,6 +92297,41 @@
         <v>2007400</v>
       </c>
     </row>
+    <row r="2618">
+      <c r="A2618" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2618" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2618" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2618" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2618" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2618" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2618" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2618" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2618" t="n">
+        <v>861000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2618"/>
+  <dimension ref="A1:I2619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92332,6 +92332,41 @@
         <v>861000</v>
       </c>
     </row>
+    <row r="2619">
+      <c r="A2619" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2619" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2619" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2619" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2619" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2619" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2619" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2619" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2619" t="n">
+        <v>814600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2619"/>
+  <dimension ref="A1:I2620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92367,6 +92367,41 @@
         <v>814600</v>
       </c>
     </row>
+    <row r="2620">
+      <c r="A2620" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2620" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2620" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2620" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2620" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2620" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2620" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2620" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2620" t="n">
+        <v>478100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2620"/>
+  <dimension ref="A1:I2621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92402,6 +92402,41 @@
         <v>478100</v>
       </c>
     </row>
+    <row r="2621">
+      <c r="A2621" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2621" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2621" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2621" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2621" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2621" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2621" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2621" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2621" t="n">
+        <v>345400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2621"/>
+  <dimension ref="A1:I2622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92437,6 +92437,41 @@
         <v>345400</v>
       </c>
     </row>
+    <row r="2622">
+      <c r="A2622" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2622" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2622" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2622" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2622" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2622" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2622" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2622" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2622" t="n">
+        <v>250000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2622"/>
+  <dimension ref="A1:I2623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92472,6 +92472,41 @@
         <v>250000</v>
       </c>
     </row>
+    <row r="2623">
+      <c r="A2623" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2623" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2623" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2623" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2623" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2623" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2623" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2623" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2623" t="n">
+        <v>200000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2623"/>
+  <dimension ref="A1:I2624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92507,6 +92507,43 @@
         <v>200000</v>
       </c>
     </row>
+    <row r="2624">
+      <c r="A2624" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2624" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2624" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2624" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2624" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2624" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2624" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2624" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2624" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2624"/>
+  <dimension ref="A1:I2625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92544,6 +92544,41 @@
         </is>
       </c>
     </row>
+    <row r="2625">
+      <c r="A2625" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2625" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2625" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2625" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2625" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2625" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2625" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2625" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2625" t="n">
+        <v>295000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2625"/>
+  <dimension ref="A1:I2626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92579,6 +92579,43 @@
         <v>295000</v>
       </c>
     </row>
+    <row r="2626">
+      <c r="A2626" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2626" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2626" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2626" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2626" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2626" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2626" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2626" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2626" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2626"/>
+  <dimension ref="A1:I2627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92616,6 +92616,41 @@
         </is>
       </c>
     </row>
+    <row r="2627">
+      <c r="A2627" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2627" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2627" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2627" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2627" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2627" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2627" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2627" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2627" t="n">
+        <v>13000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2627"/>
+  <dimension ref="A1:I2628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92651,6 +92651,43 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="2628">
+      <c r="A2628" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2628" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2628" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2628" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2628" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2628" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2628" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2628" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2628" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2628"/>
+  <dimension ref="A1:I2629"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92688,6 +92688,43 @@
         </is>
       </c>
     </row>
+    <row r="2629">
+      <c r="A2629" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2629" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2629" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2629" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2629" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2629" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2629" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2629" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2629" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/2097.xlsx
+++ b/data/2097.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2629"/>
+  <dimension ref="A1:I2630"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -92725,6 +92725,41 @@
         </is>
       </c>
     </row>
+    <row r="2630">
+      <c r="A2630" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2630" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2630" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="D2630" t="inlineStr">
+        <is>
+          <t>EASTLND</t>
+        </is>
+      </c>
+      <c r="E2630" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2630" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2630" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2630" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2630" t="n">
+        <v>128000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
